--- a/Financials/Quarterly/TD_QTR_FIN.xlsx
+++ b/Financials/Quarterly/TD_QTR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4207FA88-1068-447B-857A-2A66D24B619A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TD" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>TD</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,90 +689,102 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43496</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43404</v>
+      </c>
+      <c r="F7" s="2">
         <v>43312</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43220</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43131</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43039</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>42947</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>42855</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>42766</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7306600</v>
+        <v>7847000</v>
       </c>
       <c r="E8" s="3">
-        <v>6613700</v>
+        <v>7437600</v>
       </c>
       <c r="F8" s="3">
-        <v>6382500</v>
+        <v>7078200</v>
       </c>
       <c r="G8" s="3">
-        <v>6058300</v>
+        <v>6406900</v>
       </c>
       <c r="H8" s="3">
-        <v>5857000</v>
+        <v>6182900</v>
       </c>
       <c r="I8" s="3">
+        <v>5868800</v>
+      </c>
+      <c r="J8" s="3">
+        <v>5673900</v>
+      </c>
+      <c r="K8" s="3">
         <v>5527400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>5475200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>5282300</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -765,8 +812,14 @@
       <c r="K9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -794,8 +847,14 @@
       <c r="K10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -807,8 +866,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -836,8 +897,14 @@
       <c r="K12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -865,8 +932,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -894,37 +967,49 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-142900</v>
+        <v>-145100</v>
       </c>
       <c r="E15" s="3">
-        <v>-165900</v>
+        <v>-161500</v>
       </c>
       <c r="F15" s="3">
-        <v>-150600</v>
+        <v>-138400</v>
       </c>
       <c r="G15" s="3">
-        <v>-142900</v>
+        <v>-160700</v>
       </c>
       <c r="H15" s="3">
-        <v>-132900</v>
+        <v>-145900</v>
       </c>
       <c r="I15" s="3">
+        <v>-138400</v>
+      </c>
+      <c r="J15" s="3">
+        <v>-128700</v>
+      </c>
+      <c r="K15" s="3">
         <v>-134400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>-130600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>-139800</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -933,66 +1018,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3393300</v>
+        <v>4118500</v>
       </c>
       <c r="E17" s="3">
-        <v>2893900</v>
+        <v>3652600</v>
       </c>
       <c r="F17" s="3">
-        <v>2743300</v>
+        <v>3287200</v>
       </c>
       <c r="G17" s="3">
-        <v>2407600</v>
+        <v>2803400</v>
       </c>
       <c r="H17" s="3">
-        <v>2198700</v>
+        <v>2657600</v>
       </c>
       <c r="I17" s="3">
+        <v>2332400</v>
+      </c>
+      <c r="J17" s="3">
+        <v>2129900</v>
+      </c>
+      <c r="K17" s="3">
         <v>1986600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2012000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1806900</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3913400</v>
+        <v>3728500</v>
       </c>
       <c r="E18" s="3">
-        <v>3719800</v>
+        <v>3785100</v>
       </c>
       <c r="F18" s="3">
-        <v>3639100</v>
+        <v>3791000</v>
       </c>
       <c r="G18" s="3">
-        <v>3650600</v>
+        <v>3603500</v>
       </c>
       <c r="H18" s="3">
-        <v>3658300</v>
+        <v>3525300</v>
       </c>
       <c r="I18" s="3">
+        <v>3536500</v>
+      </c>
+      <c r="J18" s="3">
+        <v>3543900</v>
+      </c>
+      <c r="K18" s="3">
         <v>3540800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>3463200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>3475500</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1004,66 +1103,80 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1163100</v>
+        <v>-1800200</v>
       </c>
       <c r="E20" s="3">
-        <v>-1007100</v>
+        <v>-1242800</v>
       </c>
       <c r="F20" s="3">
-        <v>-1145400</v>
+        <v>-1126700</v>
       </c>
       <c r="G20" s="3">
-        <v>-1154600</v>
+        <v>-975700</v>
       </c>
       <c r="H20" s="3">
-        <v>-1041000</v>
+        <v>-1109600</v>
       </c>
       <c r="I20" s="3">
+        <v>-1118500</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-1008400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1505700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-1146200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-1352100</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3008400</v>
+        <v>2180500</v>
       </c>
       <c r="E21" s="3">
-        <v>2986100</v>
+        <v>2814600</v>
       </c>
       <c r="F21" s="3">
-        <v>2749500</v>
+        <v>2914300</v>
       </c>
       <c r="G21" s="3">
-        <v>2751000</v>
+        <v>2892700</v>
       </c>
       <c r="H21" s="3">
-        <v>2876300</v>
+        <v>2663500</v>
       </c>
       <c r="I21" s="3">
+        <v>2665000</v>
+      </c>
+      <c r="J21" s="3">
+        <v>2786300</v>
+      </c>
+      <c r="K21" s="3">
         <v>2280900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>2561300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>2392300</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1091,66 +1204,84 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2750300</v>
+        <v>1928200</v>
       </c>
       <c r="E23" s="3">
-        <v>2712600</v>
+        <v>2542200</v>
       </c>
       <c r="F23" s="3">
-        <v>2493700</v>
+        <v>2664300</v>
       </c>
       <c r="G23" s="3">
-        <v>2496000</v>
+        <v>2627800</v>
       </c>
       <c r="H23" s="3">
-        <v>2617400</v>
+        <v>2415700</v>
       </c>
       <c r="I23" s="3">
+        <v>2417900</v>
+      </c>
+      <c r="J23" s="3">
+        <v>2535500</v>
+      </c>
+      <c r="K23" s="3">
         <v>2035000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>2317000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>2123400</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>541600</v>
+        <v>374300</v>
       </c>
       <c r="E24" s="3">
-        <v>573100</v>
+        <v>514200</v>
       </c>
       <c r="F24" s="3">
-        <v>799000</v>
+        <v>524700</v>
       </c>
       <c r="G24" s="3">
-        <v>491700</v>
+        <v>555200</v>
       </c>
       <c r="H24" s="3">
-        <v>583900</v>
+        <v>774000</v>
       </c>
       <c r="I24" s="3">
+        <v>476300</v>
+      </c>
+      <c r="J24" s="3">
+        <v>565600</v>
+      </c>
+      <c r="K24" s="3">
         <v>197400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>457900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>426400</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1178,66 +1309,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2208700</v>
+        <v>1553900</v>
       </c>
       <c r="E26" s="3">
-        <v>2139500</v>
+        <v>2028000</v>
       </c>
       <c r="F26" s="3">
-        <v>1694700</v>
+        <v>2139600</v>
       </c>
       <c r="G26" s="3">
-        <v>2004300</v>
+        <v>2072600</v>
       </c>
       <c r="H26" s="3">
-        <v>2033500</v>
+        <v>1641700</v>
       </c>
       <c r="I26" s="3">
+        <v>1941600</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1969900</v>
+      </c>
+      <c r="K26" s="3">
         <v>1837600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>1859100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>1697000</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2326200</v>
+        <v>1735500</v>
       </c>
       <c r="E27" s="3">
-        <v>2186400</v>
+        <v>2151500</v>
       </c>
       <c r="F27" s="3">
-        <v>1753900</v>
+        <v>2253500</v>
       </c>
       <c r="G27" s="3">
-        <v>2018100</v>
+        <v>2118000</v>
       </c>
       <c r="H27" s="3">
-        <v>2068800</v>
+        <v>1699000</v>
       </c>
       <c r="I27" s="3">
+        <v>1955000</v>
+      </c>
+      <c r="J27" s="3">
+        <v>2004200</v>
+      </c>
+      <c r="K27" s="3">
         <v>1864500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>1886800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>1713900</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1265,8 +1414,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1294,8 +1449,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1323,8 +1484,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1352,66 +1519,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1163100</v>
+        <v>1800200</v>
       </c>
       <c r="E32" s="3">
-        <v>1007100</v>
+        <v>1242800</v>
       </c>
       <c r="F32" s="3">
-        <v>1145400</v>
+        <v>1126700</v>
       </c>
       <c r="G32" s="3">
-        <v>1154600</v>
+        <v>975700</v>
       </c>
       <c r="H32" s="3">
-        <v>1041000</v>
+        <v>1109600</v>
       </c>
       <c r="I32" s="3">
+        <v>1118500</v>
+      </c>
+      <c r="J32" s="3">
+        <v>1008400</v>
+      </c>
+      <c r="K32" s="3">
         <v>1505700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>1146200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>1352100</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2326200</v>
+        <v>1735500</v>
       </c>
       <c r="E33" s="3">
-        <v>2186400</v>
+        <v>2151500</v>
       </c>
       <c r="F33" s="3">
-        <v>1753900</v>
+        <v>2253500</v>
       </c>
       <c r="G33" s="3">
-        <v>2018100</v>
+        <v>2118000</v>
       </c>
       <c r="H33" s="3">
-        <v>2068800</v>
+        <v>1699000</v>
       </c>
       <c r="I33" s="3">
+        <v>1955000</v>
+      </c>
+      <c r="J33" s="3">
+        <v>2004200</v>
+      </c>
+      <c r="K33" s="3">
         <v>1864500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>1886800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>1713900</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1439,71 +1624,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2326200</v>
+        <v>1735500</v>
       </c>
       <c r="E35" s="3">
-        <v>2186400</v>
+        <v>2151500</v>
       </c>
       <c r="F35" s="3">
-        <v>1753900</v>
+        <v>2253500</v>
       </c>
       <c r="G35" s="3">
-        <v>2018100</v>
+        <v>2118000</v>
       </c>
       <c r="H35" s="3">
-        <v>2068800</v>
+        <v>1699000</v>
       </c>
       <c r="I35" s="3">
+        <v>1955000</v>
+      </c>
+      <c r="J35" s="3">
+        <v>2004200</v>
+      </c>
+      <c r="K35" s="3">
         <v>1864500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>1886800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>1713900</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43496</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43404</v>
+      </c>
+      <c r="F38" s="2">
         <v>43312</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43220</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43131</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43039</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>42947</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>42855</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>42766</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1515,8 +1718,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1528,66 +1733,80 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4256800</v>
+        <v>3260400</v>
       </c>
       <c r="E41" s="3">
-        <v>3224300</v>
+        <v>3523800</v>
       </c>
       <c r="F41" s="3">
-        <v>2993000</v>
+        <v>4123700</v>
       </c>
       <c r="G41" s="3">
-        <v>3050600</v>
+        <v>3123400</v>
       </c>
       <c r="H41" s="3">
-        <v>3159700</v>
+        <v>2899400</v>
       </c>
       <c r="I41" s="3">
+        <v>2955300</v>
+      </c>
+      <c r="J41" s="3">
+        <v>3060900</v>
+      </c>
+      <c r="K41" s="3">
         <v>4049300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>2879300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>3001500</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>244384700</v>
+        <v>241118100</v>
       </c>
       <c r="E42" s="3">
-        <v>253542000</v>
+        <v>245514100</v>
       </c>
       <c r="F42" s="3">
-        <v>245491000</v>
+        <v>236743600</v>
       </c>
       <c r="G42" s="3">
-        <v>188862400</v>
+        <v>245614600</v>
       </c>
       <c r="H42" s="3">
-        <v>178936900</v>
+        <v>237815300</v>
       </c>
       <c r="I42" s="3">
+        <v>182957300</v>
+      </c>
+      <c r="J42" s="3">
+        <v>173342100</v>
+      </c>
+      <c r="K42" s="3">
         <v>180308200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>165984500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>166161200</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1615,8 +1834,14 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1644,8 +1869,14 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1673,8 +1904,14 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1702,95 +1939,119 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6280300</v>
+        <v>6459000</v>
       </c>
       <c r="E47" s="3">
-        <v>6072100</v>
+        <v>6284900</v>
       </c>
       <c r="F47" s="3">
-        <v>5765600</v>
+        <v>6083900</v>
       </c>
       <c r="G47" s="3">
-        <v>5979900</v>
+        <v>5882200</v>
       </c>
       <c r="H47" s="3">
-        <v>5157900</v>
+        <v>5585300</v>
       </c>
       <c r="I47" s="3">
+        <v>5792900</v>
+      </c>
+      <c r="J47" s="3">
+        <v>4996600</v>
+      </c>
+      <c r="K47" s="3">
         <v>5593500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>5287700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>5447500</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4004000</v>
+        <v>3983800</v>
       </c>
       <c r="E48" s="3">
-        <v>3984800</v>
+        <v>3962200</v>
       </c>
       <c r="F48" s="3">
-        <v>3919500</v>
+        <v>3878800</v>
       </c>
       <c r="G48" s="3">
-        <v>4081600</v>
+        <v>3860200</v>
       </c>
       <c r="H48" s="3">
-        <v>3959500</v>
+        <v>3797000</v>
       </c>
       <c r="I48" s="3">
+        <v>3954000</v>
+      </c>
+      <c r="J48" s="3">
+        <v>3835700</v>
+      </c>
+      <c r="K48" s="3">
         <v>4195300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>4113900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>4211400</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>14475800</v>
+        <v>14577600</v>
       </c>
       <c r="E49" s="3">
-        <v>14349000</v>
+        <v>14136300</v>
       </c>
       <c r="F49" s="3">
-        <v>13888800</v>
+        <v>14023100</v>
       </c>
       <c r="G49" s="3">
-        <v>14422800</v>
+        <v>13900400</v>
       </c>
       <c r="H49" s="3">
-        <v>13994100</v>
+        <v>13454600</v>
       </c>
       <c r="I49" s="3">
+        <v>13971800</v>
+      </c>
+      <c r="J49" s="3">
+        <v>13556500</v>
+      </c>
+      <c r="K49" s="3">
         <v>15101900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>14506500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>14827600</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1818,8 +2079,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1847,37 +2114,49 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2142600</v>
+        <v>1693100</v>
       </c>
       <c r="E52" s="3">
-        <v>2054200</v>
+        <v>2176800</v>
       </c>
       <c r="F52" s="3">
-        <v>1816900</v>
+        <v>2075600</v>
       </c>
       <c r="G52" s="3">
-        <v>1928300</v>
+        <v>1990000</v>
       </c>
       <c r="H52" s="3">
-        <v>1907500</v>
+        <v>1760100</v>
       </c>
       <c r="I52" s="3">
+        <v>1868000</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1847900</v>
+      </c>
+      <c r="K52" s="3">
         <v>1847600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1771500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1609400</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1905,37 +2184,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>992940300</v>
+        <v>984222200</v>
       </c>
       <c r="E54" s="3">
-        <v>986281300</v>
+        <v>993448200</v>
       </c>
       <c r="F54" s="3">
-        <v>968980800</v>
+        <v>961894400</v>
       </c>
       <c r="G54" s="3">
-        <v>982562300</v>
+        <v>955443600</v>
       </c>
       <c r="H54" s="3">
-        <v>923705200</v>
+        <v>938684000</v>
       </c>
       <c r="I54" s="3">
+        <v>951840900</v>
+      </c>
+      <c r="J54" s="3">
+        <v>894824000</v>
+      </c>
+      <c r="K54" s="3">
         <v>961762500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>911799100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>904181400</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1947,8 +2238,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1960,95 +2253,115 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>15678000</v>
+        <v>23869000</v>
       </c>
       <c r="E57" s="3">
-        <v>17745300</v>
+        <v>25769000</v>
       </c>
       <c r="F57" s="3">
-        <v>23485600</v>
+        <v>15187800</v>
       </c>
       <c r="G57" s="3">
-        <v>29447000</v>
+        <v>17190500</v>
       </c>
       <c r="H57" s="3">
-        <v>17345100</v>
+        <v>22751200</v>
       </c>
       <c r="I57" s="3">
+        <v>28526300</v>
+      </c>
+      <c r="J57" s="3">
+        <v>16802800</v>
+      </c>
+      <c r="K57" s="3">
         <v>27514900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>22888600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>17836800</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>119473200</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>98892900</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3977100</v>
+        <v>3171800</v>
       </c>
       <c r="E59" s="3">
-        <v>3771200</v>
+        <v>3851300</v>
       </c>
       <c r="F59" s="3">
-        <v>3581500</v>
+        <v>3852800</v>
       </c>
       <c r="G59" s="3">
-        <v>4527200</v>
+        <v>3653300</v>
       </c>
       <c r="H59" s="3">
-        <v>3988700</v>
+        <v>3469500</v>
       </c>
       <c r="I59" s="3">
+        <v>4385600</v>
+      </c>
+      <c r="J59" s="3">
+        <v>3863900</v>
+      </c>
+      <c r="K59" s="3">
         <v>4044000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>3443200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>4531000</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2076,66 +2389,84 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5395300</v>
+        <v>6618300</v>
       </c>
       <c r="E61" s="3">
-        <v>5862400</v>
+        <v>6504400</v>
       </c>
       <c r="F61" s="3">
-        <v>5775600</v>
+        <v>5226600</v>
       </c>
       <c r="G61" s="3">
-        <v>7319700</v>
+        <v>5679100</v>
       </c>
       <c r="H61" s="3">
-        <v>7462600</v>
+        <v>5595000</v>
       </c>
       <c r="I61" s="3">
+        <v>7090800</v>
+      </c>
+      <c r="J61" s="3">
+        <v>7229300</v>
+      </c>
+      <c r="K61" s="3">
         <v>6516100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>6448500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>8366800</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1183100</v>
+        <v>1266600</v>
       </c>
       <c r="E62" s="3">
-        <v>1131600</v>
+        <v>1248000</v>
       </c>
       <c r="F62" s="3">
-        <v>1131600</v>
+        <v>1146100</v>
       </c>
       <c r="G62" s="3">
-        <v>917300</v>
+        <v>1096200</v>
       </c>
       <c r="H62" s="3">
-        <v>990200</v>
+        <v>1096200</v>
       </c>
       <c r="I62" s="3">
+        <v>888600</v>
+      </c>
+      <c r="J62" s="3">
+        <v>959300</v>
+      </c>
+      <c r="K62" s="3">
         <v>1046300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1004100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>1052500</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2163,8 +2494,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2192,8 +2529,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2221,37 +2564,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>934021700</v>
+        <v>923442600</v>
       </c>
       <c r="E66" s="3">
-        <v>928149400</v>
+        <v>934620600</v>
       </c>
       <c r="F66" s="3">
-        <v>913523800</v>
+        <v>904818000</v>
       </c>
       <c r="G66" s="3">
-        <v>925554300</v>
+        <v>899129200</v>
       </c>
       <c r="H66" s="3">
-        <v>868487900</v>
+        <v>884960900</v>
       </c>
       <c r="I66" s="3">
+        <v>896615300</v>
+      </c>
+      <c r="J66" s="3">
+        <v>841333100</v>
+      </c>
+      <c r="K66" s="3">
         <v>904462500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>856732400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>848435500</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2263,8 +2618,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2292,8 +2649,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2321,37 +2684,49 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>3723600</v>
+        <v>3979300</v>
       </c>
       <c r="E70" s="3">
-        <v>3914100</v>
+        <v>3715800</v>
       </c>
       <c r="F70" s="3">
-        <v>3642200</v>
+        <v>3607200</v>
       </c>
       <c r="G70" s="3">
-        <v>3643700</v>
+        <v>3791700</v>
       </c>
       <c r="H70" s="3">
-        <v>3642900</v>
+        <v>3528300</v>
       </c>
       <c r="I70" s="3">
+        <v>3529800</v>
+      </c>
+      <c r="J70" s="3">
+        <v>3529000</v>
+      </c>
+      <c r="K70" s="3">
         <v>3374800</v>
       </c>
-      <c r="J70" s="3">
+      <c r="L70" s="3">
         <v>3376400</v>
       </c>
-      <c r="K70" s="3">
+      <c r="M70" s="3">
         <v>3376400</v>
       </c>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2379,37 +2754,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>33973400</v>
+        <v>34724800</v>
       </c>
       <c r="E72" s="3">
-        <v>33312800</v>
+        <v>34341600</v>
       </c>
       <c r="F72" s="3">
-        <v>32069000</v>
+        <v>32911200</v>
       </c>
       <c r="G72" s="3">
-        <v>31104900</v>
+        <v>32271200</v>
       </c>
       <c r="H72" s="3">
-        <v>30324300</v>
+        <v>31066300</v>
       </c>
       <c r="I72" s="3">
+        <v>30132300</v>
+      </c>
+      <c r="J72" s="3">
+        <v>29376200</v>
+      </c>
+      <c r="K72" s="3">
         <v>28867800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>28678000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>27235300</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2437,8 +2824,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2466,8 +2859,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2495,37 +2894,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>55195000</v>
+        <v>56800300</v>
       </c>
       <c r="E76" s="3">
-        <v>54217800</v>
+        <v>55111700</v>
       </c>
       <c r="F76" s="3">
-        <v>51814800</v>
+        <v>53469300</v>
       </c>
       <c r="G76" s="3">
-        <v>53364300</v>
+        <v>52522600</v>
       </c>
       <c r="H76" s="3">
-        <v>51574400</v>
+        <v>50194700</v>
       </c>
       <c r="I76" s="3">
+        <v>51695800</v>
+      </c>
+      <c r="J76" s="3">
+        <v>49961800</v>
+      </c>
+      <c r="K76" s="3">
         <v>53925100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>51690400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>52369500</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2553,71 +2964,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43496</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43404</v>
+      </c>
+      <c r="F80" s="2">
         <v>43312</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43220</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43131</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43039</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>42947</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>42855</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>42766</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2326200</v>
+        <v>1735500</v>
       </c>
       <c r="E81" s="3">
-        <v>2186400</v>
+        <v>2151500</v>
       </c>
       <c r="F81" s="3">
-        <v>1753900</v>
+        <v>2253500</v>
       </c>
       <c r="G81" s="3">
-        <v>2018100</v>
+        <v>2118000</v>
       </c>
       <c r="H81" s="3">
-        <v>2068800</v>
+        <v>1699000</v>
       </c>
       <c r="I81" s="3">
+        <v>1955000</v>
+      </c>
+      <c r="J81" s="3">
+        <v>2004200</v>
+      </c>
+      <c r="K81" s="3">
         <v>1864500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>1886800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>1713900</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2629,37 +3058,45 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>258100</v>
+        <v>252300</v>
       </c>
       <c r="E83" s="3">
-        <v>273500</v>
+        <v>272400</v>
       </c>
       <c r="F83" s="3">
-        <v>255800</v>
+        <v>250100</v>
       </c>
       <c r="G83" s="3">
-        <v>255100</v>
+        <v>264900</v>
       </c>
       <c r="H83" s="3">
-        <v>258900</v>
+        <v>247800</v>
       </c>
       <c r="I83" s="3">
+        <v>247100</v>
+      </c>
+      <c r="J83" s="3">
+        <v>250800</v>
+      </c>
+      <c r="K83" s="3">
         <v>245800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>244300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>268900</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2687,8 +3124,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2716,8 +3159,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2745,8 +3194,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2774,8 +3229,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2803,37 +3264,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5961500</v>
+        <v>-2461100</v>
       </c>
       <c r="E89" s="3">
-        <v>-4720000</v>
+        <v>1373800</v>
       </c>
       <c r="F89" s="3">
-        <v>1713900</v>
+        <v>5775100</v>
       </c>
       <c r="G89" s="3">
-        <v>13988700</v>
+        <v>-4572400</v>
       </c>
       <c r="H89" s="3">
-        <v>-1130100</v>
+        <v>1660300</v>
       </c>
       <c r="I89" s="3">
+        <v>13551300</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-1094700</v>
+      </c>
+      <c r="K89" s="3">
         <v>6580700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>7348900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>838900</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2845,37 +3318,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-134400</v>
-      </c>
-      <c r="E91" s="3" t="s">
+        <v>-128700</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-194200</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-130200</v>
+      </c>
+      <c r="G91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F91" s="3" t="s">
+      <c r="H91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G91" s="3">
-        <v>-234300</v>
-      </c>
-      <c r="H91" s="3">
-        <v>318800</v>
-      </c>
       <c r="I91" s="3">
+        <v>-227000</v>
+      </c>
+      <c r="J91" s="3">
+        <v>106400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-385700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-32300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>88300</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2903,8 +3384,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2932,37 +3419,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2216300</v>
+        <v>3779100</v>
       </c>
       <c r="E94" s="3">
-        <v>5572000</v>
+        <v>-2522100</v>
       </c>
       <c r="F94" s="3">
-        <v>437900</v>
+        <v>-2147000</v>
       </c>
       <c r="G94" s="3">
-        <v>-20179100</v>
+        <v>5397800</v>
       </c>
       <c r="H94" s="3">
-        <v>-23116800</v>
+        <v>424200</v>
       </c>
       <c r="I94" s="3">
+        <v>16454500</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-22394000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-3628400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-4786100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>4564800</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2974,37 +3473,45 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-915700</v>
+        <v>-884100</v>
       </c>
       <c r="E96" s="3">
-        <v>-921100</v>
+        <v>-878200</v>
       </c>
       <c r="F96" s="3">
-        <v>-816600</v>
+        <v>-887100</v>
       </c>
       <c r="G96" s="3">
-        <v>-824300</v>
+        <v>-892300</v>
       </c>
       <c r="H96" s="3">
-        <v>-822000</v>
+        <v>-791100</v>
       </c>
       <c r="I96" s="3">
+        <v>-798500</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-796300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-827400</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-761300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-751300</v>
       </c>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3032,8 +3539,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3061,8 +3574,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3090,91 +3609,115 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2736400</v>
+        <v>-1578500</v>
       </c>
       <c r="E100" s="3">
-        <v>-699100</v>
+        <v>527600</v>
       </c>
       <c r="F100" s="3">
-        <v>-2123400</v>
+        <v>-2650900</v>
       </c>
       <c r="G100" s="3">
-        <v>6021400</v>
+        <v>-677200</v>
       </c>
       <c r="H100" s="3">
-        <v>3459300</v>
+        <v>-2057000</v>
       </c>
       <c r="I100" s="3">
+        <v>5833100</v>
+      </c>
+      <c r="J100" s="3">
+        <v>3351200</v>
+      </c>
+      <c r="K100" s="3">
         <v>10220500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>5342300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-5949900</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>23800</v>
+        <v>-3000</v>
       </c>
       <c r="E101" s="3">
-        <v>78400</v>
+        <v>20800</v>
       </c>
       <c r="F101" s="3">
-        <v>-86000</v>
+        <v>23100</v>
       </c>
       <c r="G101" s="3">
-        <v>59900</v>
+        <v>75900</v>
       </c>
       <c r="H101" s="3">
-        <v>-164400</v>
+        <v>-83400</v>
       </c>
       <c r="I101" s="3">
+        <v>58000</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-159300</v>
+      </c>
+      <c r="K101" s="3">
         <v>90700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-58400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>39900</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1032500</v>
+        <v>-263500</v>
       </c>
       <c r="E102" s="3">
-        <v>231200</v>
+        <v>-599800</v>
       </c>
       <c r="F102" s="3">
-        <v>-57600</v>
+        <v>1000200</v>
       </c>
       <c r="G102" s="3">
-        <v>-109100</v>
+        <v>224000</v>
       </c>
       <c r="H102" s="3">
-        <v>-889600</v>
+        <v>-55800</v>
       </c>
       <c r="I102" s="3">
+        <v>-105700</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-861800</v>
+      </c>
+      <c r="K102" s="3">
         <v>1170000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-122100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>241200</v>
       </c>
     </row>

--- a/Financials/Quarterly/TD_QTR_FIN.xlsx
+++ b/Financials/Quarterly/TD_QTR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4207FA88-1068-447B-857A-2A66D24B619A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="TD" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>TD</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,102 +654,123 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43769</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43677</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43585</v>
+      </c>
+      <c r="G7" s="2">
         <v>43496</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>43404</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>43312</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43220</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>43131</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>43039</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>42947</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>42855</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>42766</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7847000</v>
+        <v>7932900</v>
       </c>
       <c r="E8" s="3">
-        <v>7437600</v>
+        <v>8012700</v>
       </c>
       <c r="F8" s="3">
-        <v>7078200</v>
+        <v>7733400</v>
       </c>
       <c r="G8" s="3">
-        <v>6406900</v>
+        <v>7937400</v>
       </c>
       <c r="H8" s="3">
+        <v>7523400</v>
+      </c>
+      <c r="I8" s="3">
+        <v>7159800</v>
+      </c>
+      <c r="J8" s="3">
+        <v>6480800</v>
+      </c>
+      <c r="K8" s="3">
         <v>6182900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="L8" s="3">
         <v>5868800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="M8" s="3">
         <v>5673900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="N8" s="3">
         <v>5527400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="O8" s="3">
         <v>5475200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="P8" s="3">
         <v>5282300</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -818,8 +804,17 @@
       <c r="M9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -853,8 +848,17 @@
       <c r="M10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -868,8 +872,11 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -903,8 +910,17 @@
       <c r="M12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -938,8 +954,17 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -973,43 +998,61 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-145100</v>
+        <v>-158800</v>
       </c>
       <c r="E15" s="3">
-        <v>-161500</v>
+        <v>-146800</v>
       </c>
       <c r="F15" s="3">
+        <v>-149800</v>
+      </c>
+      <c r="G15" s="3">
+        <v>-146800</v>
+      </c>
+      <c r="H15" s="3">
+        <v>-163400</v>
+      </c>
+      <c r="I15" s="3">
+        <v>-140000</v>
+      </c>
+      <c r="J15" s="3">
+        <v>-162600</v>
+      </c>
+      <c r="K15" s="3">
+        <v>-145900</v>
+      </c>
+      <c r="L15" s="3">
         <v>-138400</v>
       </c>
-      <c r="G15" s="3">
-        <v>-160700</v>
-      </c>
-      <c r="H15" s="3">
-        <v>-145900</v>
-      </c>
-      <c r="I15" s="3">
-        <v>-138400</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="M15" s="3">
         <v>-128700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="N15" s="3">
         <v>-134400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="O15" s="3">
         <v>-130600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="P15" s="3">
         <v>-139800</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1020,78 +1063,99 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4118500</v>
+        <v>3955200</v>
       </c>
       <c r="E17" s="3">
-        <v>3652600</v>
+        <v>3971000</v>
       </c>
       <c r="F17" s="3">
-        <v>3287200</v>
+        <v>3789500</v>
       </c>
       <c r="G17" s="3">
-        <v>2803400</v>
+        <v>4165900</v>
       </c>
       <c r="H17" s="3">
+        <v>3694700</v>
+      </c>
+      <c r="I17" s="3">
+        <v>3325100</v>
+      </c>
+      <c r="J17" s="3">
+        <v>2835800</v>
+      </c>
+      <c r="K17" s="3">
         <v>2657600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>2332400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>2129900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="N17" s="3">
         <v>1986600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="O17" s="3">
         <v>2012000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="P17" s="3">
         <v>1806900</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3728500</v>
+        <v>3977700</v>
       </c>
       <c r="E18" s="3">
-        <v>3785100</v>
+        <v>4041700</v>
       </c>
       <c r="F18" s="3">
-        <v>3791000</v>
+        <v>3943900</v>
       </c>
       <c r="G18" s="3">
-        <v>3603500</v>
+        <v>3771500</v>
       </c>
       <c r="H18" s="3">
+        <v>3828700</v>
+      </c>
+      <c r="I18" s="3">
+        <v>3834700</v>
+      </c>
+      <c r="J18" s="3">
+        <v>3645000</v>
+      </c>
+      <c r="K18" s="3">
         <v>3525300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="L18" s="3">
         <v>3536500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="M18" s="3">
         <v>3543900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="N18" s="3">
         <v>3540800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="O18" s="3">
         <v>3463200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="P18" s="3">
         <v>3475500</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1105,78 +1169,99 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1800200</v>
+        <v>-1568100</v>
       </c>
       <c r="E20" s="3">
-        <v>-1242800</v>
+        <v>-1212700</v>
       </c>
       <c r="F20" s="3">
-        <v>-1126700</v>
+        <v>-1174400</v>
       </c>
       <c r="G20" s="3">
-        <v>-975700</v>
+        <v>-1821000</v>
       </c>
       <c r="H20" s="3">
+        <v>-1257200</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-1139700</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-986900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1109600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="L20" s="3">
         <v>-1118500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="M20" s="3">
         <v>-1008400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="N20" s="3">
         <v>-1505700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="O20" s="3">
         <v>-1146200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="P20" s="3">
         <v>-1352100</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2180500</v>
+        <v>2693500</v>
       </c>
       <c r="E21" s="3">
-        <v>2814600</v>
+        <v>3088700</v>
       </c>
       <c r="F21" s="3">
-        <v>2914300</v>
+        <v>3028500</v>
       </c>
       <c r="G21" s="3">
-        <v>2892700</v>
+        <v>2205700</v>
       </c>
       <c r="H21" s="3">
+        <v>2847100</v>
+      </c>
+      <c r="I21" s="3">
+        <v>2947900</v>
+      </c>
+      <c r="J21" s="3">
+        <v>2926100</v>
+      </c>
+      <c r="K21" s="3">
         <v>2663500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="L21" s="3">
         <v>2665000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="M21" s="3">
         <v>2786300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="N21" s="3">
         <v>2280900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="O21" s="3">
         <v>2561300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="P21" s="3">
         <v>2392300</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1210,78 +1295,105 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1928200</v>
+        <v>2409700</v>
       </c>
       <c r="E23" s="3">
-        <v>2542200</v>
+        <v>2829000</v>
       </c>
       <c r="F23" s="3">
-        <v>2664300</v>
+        <v>2769500</v>
       </c>
       <c r="G23" s="3">
-        <v>2627800</v>
+        <v>1950500</v>
       </c>
       <c r="H23" s="3">
+        <v>2571500</v>
+      </c>
+      <c r="I23" s="3">
+        <v>2695000</v>
+      </c>
+      <c r="J23" s="3">
+        <v>2658100</v>
+      </c>
+      <c r="K23" s="3">
         <v>2415700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>2417900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
         <v>2535500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="N23" s="3">
         <v>2035000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="O23" s="3">
         <v>2317000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="P23" s="3">
         <v>2123400</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>374300</v>
+        <v>486300</v>
       </c>
       <c r="E24" s="3">
-        <v>514200</v>
+        <v>612000</v>
       </c>
       <c r="F24" s="3">
-        <v>524700</v>
+        <v>581900</v>
       </c>
       <c r="G24" s="3">
-        <v>555200</v>
+        <v>378700</v>
       </c>
       <c r="H24" s="3">
+        <v>520200</v>
+      </c>
+      <c r="I24" s="3">
+        <v>530700</v>
+      </c>
+      <c r="J24" s="3">
+        <v>561600</v>
+      </c>
+      <c r="K24" s="3">
         <v>774000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="L24" s="3">
         <v>476300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="M24" s="3">
         <v>565600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="N24" s="3">
         <v>197400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="O24" s="3">
         <v>457900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="P24" s="3">
         <v>426400</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1315,78 +1427,105 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1553900</v>
+        <v>1923400</v>
       </c>
       <c r="E26" s="3">
-        <v>2028000</v>
+        <v>2217000</v>
       </c>
       <c r="F26" s="3">
-        <v>2139600</v>
+        <v>2187600</v>
       </c>
       <c r="G26" s="3">
-        <v>2072600</v>
+        <v>1571800</v>
       </c>
       <c r="H26" s="3">
+        <v>2051400</v>
+      </c>
+      <c r="I26" s="3">
+        <v>2164300</v>
+      </c>
+      <c r="J26" s="3">
+        <v>2096500</v>
+      </c>
+      <c r="K26" s="3">
         <v>1641700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>1941600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="M26" s="3">
         <v>1969900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="N26" s="3">
         <v>1837600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="O26" s="3">
         <v>1859100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="P26" s="3">
         <v>1697000</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1735500</v>
+        <v>2098800</v>
       </c>
       <c r="E27" s="3">
-        <v>2151500</v>
+        <v>2398400</v>
       </c>
       <c r="F27" s="3">
-        <v>2253500</v>
+        <v>2341200</v>
       </c>
       <c r="G27" s="3">
-        <v>2118000</v>
+        <v>1755500</v>
       </c>
       <c r="H27" s="3">
+        <v>2176300</v>
+      </c>
+      <c r="I27" s="3">
+        <v>2279400</v>
+      </c>
+      <c r="J27" s="3">
+        <v>2142400</v>
+      </c>
+      <c r="K27" s="3">
         <v>1699000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>1955000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="M27" s="3">
         <v>2004200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="N27" s="3">
         <v>1864500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="O27" s="3">
         <v>1886800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="P27" s="3">
         <v>1713900</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1420,8 +1559,17 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1455,8 +1603,17 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1490,8 +1647,17 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1525,78 +1691,105 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1800200</v>
+        <v>1568100</v>
       </c>
       <c r="E32" s="3">
-        <v>1242800</v>
+        <v>1212700</v>
       </c>
       <c r="F32" s="3">
-        <v>1126700</v>
+        <v>1174400</v>
       </c>
       <c r="G32" s="3">
-        <v>975700</v>
+        <v>1821000</v>
       </c>
       <c r="H32" s="3">
+        <v>1257200</v>
+      </c>
+      <c r="I32" s="3">
+        <v>1139700</v>
+      </c>
+      <c r="J32" s="3">
+        <v>986900</v>
+      </c>
+      <c r="K32" s="3">
         <v>1109600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="L32" s="3">
         <v>1118500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="M32" s="3">
         <v>1008400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="N32" s="3">
         <v>1505700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="O32" s="3">
         <v>1146200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="P32" s="3">
         <v>1352100</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1735500</v>
+        <v>2098800</v>
       </c>
       <c r="E33" s="3">
-        <v>2151500</v>
+        <v>2398400</v>
       </c>
       <c r="F33" s="3">
-        <v>2253500</v>
+        <v>2341200</v>
       </c>
       <c r="G33" s="3">
-        <v>2118000</v>
+        <v>1755500</v>
       </c>
       <c r="H33" s="3">
+        <v>2176300</v>
+      </c>
+      <c r="I33" s="3">
+        <v>2279400</v>
+      </c>
+      <c r="J33" s="3">
+        <v>2142400</v>
+      </c>
+      <c r="K33" s="3">
         <v>1699000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>1955000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="M33" s="3">
         <v>2004200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="N33" s="3">
         <v>1864500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="O33" s="3">
         <v>1886800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="P33" s="3">
         <v>1713900</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1630,83 +1823,110 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1735500</v>
+        <v>2098800</v>
       </c>
       <c r="E35" s="3">
-        <v>2151500</v>
+        <v>2398400</v>
       </c>
       <c r="F35" s="3">
-        <v>2253500</v>
+        <v>2341200</v>
       </c>
       <c r="G35" s="3">
-        <v>2118000</v>
+        <v>1755500</v>
       </c>
       <c r="H35" s="3">
+        <v>2176300</v>
+      </c>
+      <c r="I35" s="3">
+        <v>2279400</v>
+      </c>
+      <c r="J35" s="3">
+        <v>2142400</v>
+      </c>
+      <c r="K35" s="3">
         <v>1699000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>1955000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="M35" s="3">
         <v>2004200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="N35" s="3">
         <v>1864500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="O35" s="3">
         <v>1886800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="P35" s="3">
         <v>1713900</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43769</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43677</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43585</v>
+      </c>
+      <c r="G38" s="2">
         <v>43496</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>43404</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>43312</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43220</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>43131</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>43039</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>42947</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>42855</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>42766</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1720,8 +1940,11 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1735,78 +1958,99 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3260400</v>
+        <v>3660800</v>
       </c>
       <c r="E41" s="3">
-        <v>3523800</v>
+        <v>3773000</v>
       </c>
       <c r="F41" s="3">
-        <v>4123700</v>
+        <v>3770700</v>
       </c>
       <c r="G41" s="3">
-        <v>3123400</v>
+        <v>3298000</v>
       </c>
       <c r="H41" s="3">
+        <v>3564500</v>
+      </c>
+      <c r="I41" s="3">
+        <v>4171200</v>
+      </c>
+      <c r="J41" s="3">
+        <v>3159500</v>
+      </c>
+      <c r="K41" s="3">
         <v>2899400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="L41" s="3">
         <v>2955300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="M41" s="3">
         <v>3060900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="N41" s="3">
         <v>4049300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="O41" s="3">
         <v>2879300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="P41" s="3">
         <v>3001500</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>241118100</v>
+        <v>287153300</v>
       </c>
       <c r="E42" s="3">
-        <v>245514100</v>
+        <v>283302700</v>
       </c>
       <c r="F42" s="3">
-        <v>236743600</v>
+        <v>256815100</v>
       </c>
       <c r="G42" s="3">
-        <v>245614600</v>
+        <v>243897900</v>
       </c>
       <c r="H42" s="3">
+        <v>248344700</v>
+      </c>
+      <c r="I42" s="3">
+        <v>239473000</v>
+      </c>
+      <c r="J42" s="3">
+        <v>248446300</v>
+      </c>
+      <c r="K42" s="3">
         <v>237815300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="L42" s="3">
         <v>182957300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="M42" s="3">
         <v>173342100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="N42" s="3">
         <v>180308200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="O42" s="3">
         <v>165984500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="P42" s="3">
         <v>166161200</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1840,8 +2084,17 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1875,8 +2128,17 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1910,8 +2172,17 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1945,113 +2216,149 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6459000</v>
+        <v>7013000</v>
       </c>
       <c r="E47" s="3">
-        <v>6284900</v>
+        <v>6856400</v>
       </c>
       <c r="F47" s="3">
-        <v>6083900</v>
+        <v>6795400</v>
       </c>
       <c r="G47" s="3">
-        <v>5882200</v>
+        <v>6533500</v>
       </c>
       <c r="H47" s="3">
+        <v>6357300</v>
+      </c>
+      <c r="I47" s="3">
+        <v>6154100</v>
+      </c>
+      <c r="J47" s="3">
+        <v>5950100</v>
+      </c>
+      <c r="K47" s="3">
         <v>5585300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="L47" s="3">
         <v>5792900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="M47" s="3">
         <v>4996600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="N47" s="3">
         <v>5593500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="O47" s="3">
         <v>5287700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="P47" s="3">
         <v>5447500</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3983800</v>
+        <v>4150100</v>
       </c>
       <c r="E48" s="3">
-        <v>3962200</v>
+        <v>4112500</v>
       </c>
       <c r="F48" s="3">
-        <v>3878800</v>
+        <v>4140300</v>
       </c>
       <c r="G48" s="3">
-        <v>3860200</v>
+        <v>4029700</v>
       </c>
       <c r="H48" s="3">
+        <v>4007900</v>
+      </c>
+      <c r="I48" s="3">
+        <v>3923500</v>
+      </c>
+      <c r="J48" s="3">
+        <v>3904700</v>
+      </c>
+      <c r="K48" s="3">
         <v>3797000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="L48" s="3">
         <v>3954000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="M48" s="3">
         <v>3835700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="N48" s="3">
         <v>4195300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="O48" s="3">
         <v>4113900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="P48" s="3">
         <v>4211400</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>14577600</v>
+        <v>14663600</v>
       </c>
       <c r="E49" s="3">
-        <v>14136300</v>
+        <v>14732900</v>
       </c>
       <c r="F49" s="3">
-        <v>14023100</v>
+        <v>14946600</v>
       </c>
       <c r="G49" s="3">
-        <v>13900400</v>
+        <v>14745700</v>
       </c>
       <c r="H49" s="3">
+        <v>14299200</v>
+      </c>
+      <c r="I49" s="3">
+        <v>14184800</v>
+      </c>
+      <c r="J49" s="3">
+        <v>14060600</v>
+      </c>
+      <c r="K49" s="3">
         <v>13454600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="L49" s="3">
         <v>13971800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="M49" s="3">
         <v>13556500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="N49" s="3">
         <v>15101900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="O49" s="3">
         <v>14506500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="P49" s="3">
         <v>14827600</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2085,8 +2392,17 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2120,43 +2436,61 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1693100</v>
+        <v>1364100</v>
       </c>
       <c r="E52" s="3">
-        <v>2176800</v>
+        <v>1436300</v>
       </c>
       <c r="F52" s="3">
-        <v>2075600</v>
+        <v>1615500</v>
       </c>
       <c r="G52" s="3">
-        <v>1990000</v>
+        <v>1712600</v>
       </c>
       <c r="H52" s="3">
+        <v>2201900</v>
+      </c>
+      <c r="I52" s="3">
+        <v>2099500</v>
+      </c>
+      <c r="J52" s="3">
+        <v>2013000</v>
+      </c>
+      <c r="K52" s="3">
         <v>1760100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="L52" s="3">
         <v>1868000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="M52" s="3">
         <v>1847900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="N52" s="3">
         <v>1847600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="O52" s="3">
         <v>1771500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="P52" s="3">
         <v>1609400</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2190,43 +2524,61 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>984222200</v>
+        <v>1065416200</v>
       </c>
       <c r="E54" s="3">
-        <v>993448200</v>
+        <v>1058002700</v>
       </c>
       <c r="F54" s="3">
-        <v>961894400</v>
+        <v>1021225900</v>
       </c>
       <c r="G54" s="3">
-        <v>955443600</v>
+        <v>995569300</v>
       </c>
       <c r="H54" s="3">
+        <v>1004901600</v>
+      </c>
+      <c r="I54" s="3">
+        <v>972984100</v>
+      </c>
+      <c r="J54" s="3">
+        <v>966458900</v>
+      </c>
+      <c r="K54" s="3">
         <v>938684000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="L54" s="3">
         <v>951840900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="M54" s="3">
         <v>894824000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="N54" s="3">
         <v>961762500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="O54" s="3">
         <v>911799100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="P54" s="3">
         <v>904181400</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2240,8 +2592,11 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2255,60 +2610,72 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>23869000</v>
+        <v>22860700</v>
       </c>
       <c r="E57" s="3">
-        <v>25769000</v>
+        <v>21239200</v>
       </c>
       <c r="F57" s="3">
-        <v>15187800</v>
+        <v>19224800</v>
       </c>
       <c r="G57" s="3">
-        <v>17190500</v>
+        <v>24144200</v>
       </c>
       <c r="H57" s="3">
+        <v>26066100</v>
+      </c>
+      <c r="I57" s="3">
+        <v>15362900</v>
+      </c>
+      <c r="J57" s="3">
+        <v>17388700</v>
+      </c>
+      <c r="K57" s="3">
         <v>22751200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="L57" s="3">
         <v>28526300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="M57" s="3">
         <v>16802800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="N57" s="3">
         <v>27514900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="O57" s="3">
         <v>22888600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="P57" s="3">
         <v>17836800</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>119473200</v>
+        <v>196209400</v>
       </c>
       <c r="E58" s="3">
-        <v>98892900</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>5</v>
+        <v>191420200</v>
+      </c>
+      <c r="F58" s="3">
+        <v>152088400</v>
+      </c>
+      <c r="G58" s="3">
+        <v>120850600</v>
+      </c>
+      <c r="H58" s="3">
+        <v>100033000</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>5</v>
@@ -2316,52 +2683,70 @@
       <c r="J58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="K58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3171800</v>
+        <v>4663500</v>
       </c>
       <c r="E59" s="3">
-        <v>3851300</v>
+        <v>4184800</v>
       </c>
       <c r="F59" s="3">
-        <v>3852800</v>
+        <v>3701500</v>
       </c>
       <c r="G59" s="3">
-        <v>3653300</v>
+        <v>3208400</v>
       </c>
       <c r="H59" s="3">
+        <v>3895700</v>
+      </c>
+      <c r="I59" s="3">
+        <v>3897200</v>
+      </c>
+      <c r="J59" s="3">
+        <v>3695400</v>
+      </c>
+      <c r="K59" s="3">
         <v>3469500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="L59" s="3">
         <v>4385600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="M59" s="3">
         <v>3863900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="N59" s="3">
         <v>4044000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="O59" s="3">
         <v>3443200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="P59" s="3">
         <v>4531000</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2395,78 +2780,105 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6618300</v>
+        <v>8073700</v>
       </c>
       <c r="E61" s="3">
-        <v>6504400</v>
+        <v>7976600</v>
       </c>
       <c r="F61" s="3">
-        <v>5226600</v>
+        <v>6751000</v>
       </c>
       <c r="G61" s="3">
-        <v>5679100</v>
+        <v>6694600</v>
       </c>
       <c r="H61" s="3">
+        <v>6579400</v>
+      </c>
+      <c r="I61" s="3">
+        <v>5286800</v>
+      </c>
+      <c r="J61" s="3">
+        <v>5744500</v>
+      </c>
+      <c r="K61" s="3">
         <v>5595000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="L61" s="3">
         <v>7090800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="M61" s="3">
         <v>7229300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="N61" s="3">
         <v>6516100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="O61" s="3">
         <v>6448500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="P61" s="3">
         <v>8366800</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1266600</v>
+        <v>969600</v>
       </c>
       <c r="E62" s="3">
-        <v>1248000</v>
+        <v>1246600</v>
       </c>
       <c r="F62" s="3">
-        <v>1146100</v>
+        <v>1290300</v>
       </c>
       <c r="G62" s="3">
+        <v>1281200</v>
+      </c>
+      <c r="H62" s="3">
+        <v>1262400</v>
+      </c>
+      <c r="I62" s="3">
+        <v>1159300</v>
+      </c>
+      <c r="J62" s="3">
+        <v>1108900</v>
+      </c>
+      <c r="K62" s="3">
         <v>1096200</v>
       </c>
-      <c r="H62" s="3">
-        <v>1096200</v>
-      </c>
-      <c r="I62" s="3">
+      <c r="L62" s="3">
         <v>888600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="M62" s="3">
         <v>959300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="N62" s="3">
         <v>1046300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="O62" s="3">
         <v>1004100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="P62" s="3">
         <v>1052500</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2500,8 +2912,17 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2535,8 +2956,17 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2570,43 +3000,61 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>923442600</v>
+        <v>999395700</v>
       </c>
       <c r="E66" s="3">
-        <v>934620600</v>
+        <v>992975200</v>
       </c>
       <c r="F66" s="3">
-        <v>904818000</v>
+        <v>957315500</v>
       </c>
       <c r="G66" s="3">
-        <v>899129200</v>
+        <v>934088900</v>
       </c>
       <c r="H66" s="3">
+        <v>945395800</v>
+      </c>
+      <c r="I66" s="3">
+        <v>915249600</v>
+      </c>
+      <c r="J66" s="3">
+        <v>909495300</v>
+      </c>
+      <c r="K66" s="3">
         <v>884960900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>896615300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>841333100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>904462500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="O66" s="3">
         <v>856732400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>848435500</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2620,8 +3068,11 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2655,8 +3106,17 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2690,43 +3150,61 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>3979300</v>
+        <v>4361700</v>
       </c>
       <c r="E70" s="3">
-        <v>3715800</v>
+        <v>4363200</v>
       </c>
       <c r="F70" s="3">
-        <v>3607200</v>
+        <v>4022900</v>
       </c>
       <c r="G70" s="3">
-        <v>3791700</v>
+        <v>4025200</v>
       </c>
       <c r="H70" s="3">
+        <v>3758700</v>
+      </c>
+      <c r="I70" s="3">
+        <v>3648800</v>
+      </c>
+      <c r="J70" s="3">
+        <v>3835500</v>
+      </c>
+      <c r="K70" s="3">
         <v>3528300</v>
       </c>
-      <c r="I70" s="3">
+      <c r="L70" s="3">
         <v>3529800</v>
       </c>
-      <c r="J70" s="3">
+      <c r="M70" s="3">
         <v>3529000</v>
       </c>
-      <c r="K70" s="3">
+      <c r="N70" s="3">
         <v>3374800</v>
       </c>
-      <c r="L70" s="3">
+      <c r="O70" s="3">
         <v>3376400</v>
       </c>
-      <c r="M70" s="3">
+      <c r="P70" s="3">
         <v>3376400</v>
       </c>
     </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2760,43 +3238,61 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>34724800</v>
+        <v>37260800</v>
       </c>
       <c r="E72" s="3">
-        <v>34341600</v>
+        <v>36749700</v>
       </c>
       <c r="F72" s="3">
-        <v>32911200</v>
+        <v>36118900</v>
       </c>
       <c r="G72" s="3">
-        <v>32271200</v>
+        <v>35125200</v>
       </c>
       <c r="H72" s="3">
+        <v>34737500</v>
+      </c>
+      <c r="I72" s="3">
+        <v>33290600</v>
+      </c>
+      <c r="J72" s="3">
+        <v>32643200</v>
+      </c>
+      <c r="K72" s="3">
         <v>31066300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>30132300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>29376200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>28867800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>28678000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>27235300</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2830,8 +3326,17 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2865,8 +3370,17 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2900,43 +3414,61 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>56800300</v>
+        <v>61658800</v>
       </c>
       <c r="E76" s="3">
-        <v>55111700</v>
+        <v>60664300</v>
       </c>
       <c r="F76" s="3">
-        <v>53469300</v>
+        <v>59887500</v>
       </c>
       <c r="G76" s="3">
-        <v>52522600</v>
+        <v>57455200</v>
       </c>
       <c r="H76" s="3">
+        <v>55747100</v>
+      </c>
+      <c r="I76" s="3">
+        <v>54085700</v>
+      </c>
+      <c r="J76" s="3">
+        <v>53128200</v>
+      </c>
+      <c r="K76" s="3">
         <v>50194700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>51695800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>49961800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>53925100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>51690400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>52369500</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2970,83 +3502,110 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43769</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43677</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43585</v>
+      </c>
+      <c r="G80" s="2">
         <v>43496</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>43404</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>43312</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43220</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>43131</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>43039</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>42947</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>42855</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>42766</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1735500</v>
+        <v>2098800</v>
       </c>
       <c r="E81" s="3">
-        <v>2151500</v>
+        <v>2398400</v>
       </c>
       <c r="F81" s="3">
-        <v>2253500</v>
+        <v>2341200</v>
       </c>
       <c r="G81" s="3">
-        <v>2118000</v>
+        <v>1755500</v>
       </c>
       <c r="H81" s="3">
+        <v>2176300</v>
+      </c>
+      <c r="I81" s="3">
+        <v>2279400</v>
+      </c>
+      <c r="J81" s="3">
+        <v>2142400</v>
+      </c>
+      <c r="K81" s="3">
         <v>1699000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>1955000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="M81" s="3">
         <v>2004200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="N81" s="3">
         <v>1864500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="O81" s="3">
         <v>1886800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="P81" s="3">
         <v>1713900</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3060,43 +3619,55 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>252300</v>
+        <v>283800</v>
       </c>
       <c r="E83" s="3">
-        <v>272400</v>
+        <v>259700</v>
       </c>
       <c r="F83" s="3">
-        <v>250100</v>
+        <v>259000</v>
       </c>
       <c r="G83" s="3">
-        <v>264900</v>
+        <v>255200</v>
       </c>
       <c r="H83" s="3">
+        <v>275500</v>
+      </c>
+      <c r="I83" s="3">
+        <v>252900</v>
+      </c>
+      <c r="J83" s="3">
+        <v>268000</v>
+      </c>
+      <c r="K83" s="3">
         <v>247800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="L83" s="3">
         <v>247100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="M83" s="3">
         <v>250800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="N83" s="3">
         <v>245800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="O83" s="3">
         <v>244300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="P83" s="3">
         <v>268900</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3130,8 +3701,17 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3165,8 +3745,17 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3200,8 +3789,17 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3235,8 +3833,17 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3270,43 +3877,61 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-2461100</v>
+        <v>600000</v>
       </c>
       <c r="E89" s="3">
-        <v>1373800</v>
+        <v>3349200</v>
       </c>
       <c r="F89" s="3">
-        <v>5775100</v>
+        <v>-1255700</v>
       </c>
       <c r="G89" s="3">
-        <v>-4572400</v>
+        <v>-2489500</v>
       </c>
       <c r="H89" s="3">
+        <v>1389700</v>
+      </c>
+      <c r="I89" s="3">
+        <v>5841700</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-4625100</v>
+      </c>
+      <c r="K89" s="3">
         <v>1660300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="L89" s="3">
         <v>13551300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="M89" s="3">
         <v>-1094700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="N89" s="3">
         <v>6580700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="O89" s="3">
         <v>7348900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="P89" s="3">
         <v>838900</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3320,43 +3945,55 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-128700</v>
+        <v>-162600</v>
       </c>
       <c r="E91" s="3">
-        <v>-194200</v>
+        <v>-85100</v>
       </c>
       <c r="F91" s="3">
+        <v>-219800</v>
+      </c>
+      <c r="G91" s="3">
         <v>-130200</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>5</v>
+      <c r="H91" s="3">
+        <v>-196500</v>
       </c>
       <c r="I91" s="3">
+        <v>-131700</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L91" s="3">
         <v>-227000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="M91" s="3">
         <v>106400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="N91" s="3">
         <v>-385700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="O91" s="3">
         <v>-32300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="P91" s="3">
         <v>88300</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3390,8 +4027,17 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3425,43 +4071,61 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>3779100</v>
+        <v>682000</v>
       </c>
       <c r="E94" s="3">
-        <v>-2522100</v>
+        <v>-3276100</v>
       </c>
       <c r="F94" s="3">
-        <v>-2147000</v>
+        <v>2916300</v>
       </c>
       <c r="G94" s="3">
-        <v>5397800</v>
+        <v>3822700</v>
       </c>
       <c r="H94" s="3">
+        <v>-2551200</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-2171800</v>
+      </c>
+      <c r="J94" s="3">
+        <v>5460000</v>
+      </c>
+      <c r="K94" s="3">
         <v>424200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="L94" s="3">
         <v>16454500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="M94" s="3">
         <v>-22394000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="N94" s="3">
         <v>-3628400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="O94" s="3">
         <v>-4786100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="P94" s="3">
         <v>4564800</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3475,43 +4139,55 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-884100</v>
+        <v>-1007200</v>
       </c>
       <c r="E96" s="3">
-        <v>-878200</v>
+        <v>-991400</v>
       </c>
       <c r="F96" s="3">
-        <v>-887100</v>
+        <v>-989200</v>
       </c>
       <c r="G96" s="3">
-        <v>-892300</v>
+        <v>-894300</v>
       </c>
       <c r="H96" s="3">
+        <v>-888300</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-897300</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-902600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-791100</v>
       </c>
-      <c r="I96" s="3">
+      <c r="L96" s="3">
         <v>-798500</v>
       </c>
-      <c r="J96" s="3">
+      <c r="M96" s="3">
         <v>-796300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="N96" s="3">
         <v>-827400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="O96" s="3">
         <v>-761300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="P96" s="3">
         <v>-751300</v>
       </c>
     </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3545,8 +4221,17 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3580,8 +4265,17 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3615,109 +4309,145 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1578500</v>
+        <v>-1390400</v>
       </c>
       <c r="E100" s="3">
-        <v>527600</v>
+        <v>-35400</v>
       </c>
       <c r="F100" s="3">
-        <v>-2650900</v>
+        <v>-1232300</v>
       </c>
       <c r="G100" s="3">
-        <v>-677200</v>
+        <v>-1596700</v>
       </c>
       <c r="H100" s="3">
+        <v>533700</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-2681400</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-685000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-2057000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="L100" s="3">
         <v>5833100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="M100" s="3">
         <v>3351200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="N100" s="3">
         <v>10220500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="O100" s="3">
         <v>5342300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="P100" s="3">
         <v>-5949900</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-35400</v>
+      </c>
+      <c r="F101" s="3">
+        <v>44400</v>
+      </c>
+      <c r="G101" s="3">
         <v>-3000</v>
       </c>
-      <c r="E101" s="3">
-        <v>20800</v>
-      </c>
-      <c r="F101" s="3">
-        <v>23100</v>
-      </c>
-      <c r="G101" s="3">
-        <v>75900</v>
-      </c>
       <c r="H101" s="3">
+        <v>21100</v>
+      </c>
+      <c r="I101" s="3">
+        <v>23300</v>
+      </c>
+      <c r="J101" s="3">
+        <v>76800</v>
+      </c>
+      <c r="K101" s="3">
         <v>-83400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="L101" s="3">
         <v>58000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="M101" s="3">
         <v>-159300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="N101" s="3">
         <v>90700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="O101" s="3">
         <v>-58400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="P101" s="3">
         <v>39900</v>
       </c>
     </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-263500</v>
+        <v>-112200</v>
       </c>
       <c r="E102" s="3">
-        <v>-599800</v>
+        <v>2300</v>
       </c>
       <c r="F102" s="3">
-        <v>1000200</v>
+        <v>472800</v>
       </c>
       <c r="G102" s="3">
-        <v>224000</v>
+        <v>-266500</v>
       </c>
       <c r="H102" s="3">
+        <v>-606700</v>
+      </c>
+      <c r="I102" s="3">
+        <v>1011700</v>
+      </c>
+      <c r="J102" s="3">
+        <v>226600</v>
+      </c>
+      <c r="K102" s="3">
         <v>-55800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="L102" s="3">
         <v>-105700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="M102" s="3">
         <v>-861800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="N102" s="3">
         <v>1170000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="O102" s="3">
         <v>-122100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="P102" s="3">
         <v>241200</v>
       </c>
     </row>
